--- a/retrasos.xlsx
+++ b/retrasos.xlsx
@@ -432,15 +432,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="17" customWidth="1" min="1" max="1"/>
-    <col width="18" customWidth="1" min="2" max="2"/>
-    <col width="17" customWidth="1" min="3" max="3"/>
-    <col width="8" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="17" customWidth="1" min="6" max="6"/>
-    <col width="12" customWidth="1" min="7" max="7"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -481,7 +472,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
